--- a/statistics/R/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0030990812240812571</v>
+        <v>0.0015495406120406285</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.08556196889530221</v>
+        <v>0.042780984447651105</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.091350160135738934</v>
+        <v>0.045675080067869467</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.033030990173847308</v>
+        <v>0.016515495086923654</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.032846749811035525</v>
+        <v>0.016423374905517762</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0027110259308402718</v>
+        <v>-0.0013555129654201359</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0027622159975101979</v>
+        <v>-0.0013811079987550989</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.034949535369703411</v>
+        <v>0.017474767684851705</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0059779467342492842</v>
+        <v>-0.0029889733671246421</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.022798008092125843</v>
+        <v>-0.011399004046062922</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.035247432306255766</v>
+        <v>-0.017623716153127883</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.069727891156462662</v>
+        <v>0.034863945578231331</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.022682346211757964</v>
+        <v>-0.011341173105878982</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.033838564665632287</v>
+        <v>-0.016919282332816143</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.082314047226327958</v>
+        <v>0.041157023613163979</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.027534708090263704</v>
+        <v>-0.013767354045131852</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.017864878244995275</v>
+        <v>0.0089324391224976374</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0093023426356759753</v>
+        <v>0.0046511713178379877</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0087985945128802867</v>
+        <v>-0.0043992972564401434</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.034344770455881468</v>
+        <v>0.017172385227940734</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.015381591232984382</v>
+        <v>-0.0076907956164921909</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0018705574261129176</v>
+        <v>0.00093527871305645882</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.062548630563336483</v>
+        <v>-0.031274315281668241</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.059936432485452107</v>
+        <v>-0.029968216242726053</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.062316895650229076</v>
+        <v>0.031158447825114538</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.075335191822646919</v>
+        <v>-0.037667595911323459</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.02229322705513187</v>
+        <v>-0.011146613527565935</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.03790849673202612</v>
+        <v>-0.01895424836601306</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.033696962268390918</v>
+        <v>0.016848481134195459</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.084890446001557041</v>
+        <v>-0.04244522300077852</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.058129450610653499</v>
+        <v>0.02906472530532675</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.13756142187514736</v>
+        <v>-0.06878071093757368</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.082844749511416294</v>
+        <v>0.041422374755708147</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.025925925925925963</v>
+        <v>0.012962962962962982</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.046178193499622155</v>
+        <v>-0.023089096749811078</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.036667506508776426</v>
+        <v>-0.018333753254388213</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.09195750372220951</v>
+        <v>0.045978751861104755</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0012323067878621807</v>
+        <v>0.00061615339393109037</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.0020891072478373407</v>
+        <v>-0.0010445536239186703</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.035335549224438267</v>
+        <v>-0.017667774612219134</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.040679454965169226</v>
+        <v>0.020339727482584613</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.036862507348618401</v>
+        <v>0.0184312536743092</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.01036906766073431</v>
+        <v>0.0051845338303671551</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.011784068466096143</v>
+        <v>-0.0058920342330480713</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.10171038112214581</v>
+        <v>0.050855190561072905</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.033715461493239285</v>
+        <v>-0.016857730746619642</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.038951607579058467</v>
+        <v>-0.019475803789529234</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.029266839939354528</v>
+        <v>-0.014633419969677264</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.082675292339157991</v>
+        <v>-0.041337646169578995</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.02659426343636867</v>
+        <v>-0.013297131718184335</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.038407795550652712</v>
+        <v>-0.019203897775326356</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.019136543506291515</v>
+        <v>0.0095682717531457573</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.04397254397254402</v>
+        <v>-0.02198627198627201</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0098795073584988513</v>
+        <v>-0.0049397536792494257</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.028990299823633159</v>
+        <v>-0.014495149911816579</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.027708159287106682</v>
+        <v>-0.013854079643553341</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.054125554125554198</v>
+        <v>-0.027062777062777099</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.016218003718003693</v>
+        <v>0.0081090018590018464</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0025132275132274118</v>
+        <v>-0.0012566137566137059</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0065515759960203535</v>
+        <v>-0.0032757879980101767</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.040052053209947924</v>
+        <v>0.020026026604973962</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.040712049483979218</v>
+        <v>-0.020356024741989609</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.025055667912810886</v>
+        <v>-0.012527833956405443</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.01001113895850736</v>
+        <v>0.0050055694792536798</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.0037108765178940351</v>
+        <v>0.0018554382589470175</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.0032560032560032814</v>
+        <v>-0.0016280016280016407</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.060277117294661231</v>
+        <v>0.030138558647330616</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.065159802659802701</v>
+        <v>0.032579901329901351</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.047204817599554638</v>
+        <v>-0.023602408799777319</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.010052910052910036</v>
+        <v>0.0050264550264550178</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.00071790349568112699</v>
+        <v>-0.0003589517478405635</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.032440431563238503</v>
+        <v>0.016220215781619252</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0045918367346938216</v>
+        <v>-0.0022959183673469108</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.049015285126396302</v>
+        <v>-0.024507642563198151</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.10821842250413688</v>
+        <v>0.05410921125206844</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.041345967816556028</v>
+        <v>-0.020672983908278014</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0061490061490063197</v>
+        <v>-0.0030745030745031598</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.00248516915183572</v>
+        <v>0.00124258457591786</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.0076180076180076828</v>
+        <v>-0.0038090038090038414</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0040337957004623615</v>
+        <v>-0.0020168978502311807</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0099514659665035365</v>
+        <v>-0.0049757329832517683</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.0056955451692293213</v>
+        <v>0.0028477725846146607</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.076646483509228647</v>
+        <v>0.038323241754614323</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0027017074636121463</v>
+        <v>0.0013508537318060732</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.07002240335573684</v>
+        <v>-0.03501120167786842</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.028449596212754114</v>
+        <v>0.014224798106377057</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.036111202777869444</v>
+        <v>-0.018055601388934722</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.035505430242272373</v>
+        <v>-0.017752715121136187</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0071456738123405472</v>
+        <v>-0.0035728369061702736</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.041964934121797026</v>
+        <v>-0.020982467060898513</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.048206937095825964</v>
+        <v>-0.024103468547912982</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.016674623065600414</v>
+        <v>0.0083373115328002068</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.057986557986557996</v>
+        <v>0.028993278993278998</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.031120864454197872</v>
+        <v>-0.015560432227098936</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.021521521521521425</v>
+        <v>-0.010760760760760713</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.048600187489076352</v>
+        <v>0.024300093744538176</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.093052848169807356</v>
+        <v>0.046526424084903678</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.021261487050960648</v>
+        <v>0.010630743525480324</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.022772071791679727</v>
+        <v>-0.011386035895839863</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.056785777374012802</v>
+        <v>0.028392888687006401</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.078613420676912849</v>
+        <v>0.039306710338456424</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.020939363399680888</v>
+        <v>0.010469681699840444</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.083238851095994049</v>
+        <v>-0.041619425547997024</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.023844333054859446</v>
+        <v>-0.011922166527429723</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.021209701765257272</v>
+        <v>0.010604850882628636</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.089295952299048187</v>
+        <v>0.044647976149524093</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.063235529902196608</v>
+        <v>-0.031617764951098304</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.044461512203447739</v>
+        <v>-0.02223075610172387</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0089714518285946565</v>
+        <v>-0.0044857259142973283</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.047579534421639647</v>
+        <v>-0.023789767210819823</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.025499706055261639</v>
+        <v>-0.01274985302763082</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.053137494313964861</v>
+        <v>0.026568747156982431</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0038665038665039453</v>
+        <v>0.0019332519332519726</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.041738917789338026</v>
+        <v>-0.020869458894669013</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.0074415074415075111</v>
+        <v>0.0037207537207537555</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.082392591164521078</v>
+        <v>0.041196295582260539</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.013878347211680409</v>
+        <v>-0.0069391736058402043</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.047358424551407097</v>
+        <v>-0.023679212275703548</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.14540517961570604</v>
+        <v>0.072702589807853019</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.092035258701925415</v>
+        <v>-0.046017629350962708</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.024968245556480806</v>
+        <v>-0.012484122778240403</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.052294606114050568</v>
+        <v>0.026147303057025284</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0031239979156645337</v>
+        <v>0.0015619989578322668</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.019341654790571317</v>
+        <v>0.0096708273952856583</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>-0.010052910052910036</v>
+        <v>-0.0050264550264550178</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.029219695886362418</v>
+        <v>-0.014609847943181209</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0271700271700272</v>
+        <v>-0.0135850135850136</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>0.020134420134420072</v>
+        <v>0.010067210067210036</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.10913733282154331</v>
+        <v>0.054568666410771655</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.054472054472054499</v>
+        <v>-0.027236027236027249</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.11756681493523591</v>
+        <v>0.058783407467617954</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.062208216619981327</v>
+        <v>-0.031104108309990663</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.060918060918060901</v>
+        <v>0.030459030459030451</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.089687954454036323</v>
+        <v>-0.044843977227018161</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.0066476733143401301</v>
+        <v>0.003323836657170065</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.083402951824004423</v>
+        <v>-0.041701475912002212</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.043870359659833325</v>
+        <v>0.021935179829916662</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.049413062570957456</v>
+        <v>-0.024706531285478728</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.017628465904328039</v>
+        <v>-0.0088142329521640195</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.037037037037036979</v>
+        <v>0.01851851851851849</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.032231365564698855</v>
+        <v>0.016115682782349428</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.026455026455026398</v>
+        <v>-0.013227513227513199</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.021807645617169413</v>
+        <v>0.010903822808584707</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.08620897683397688</v>
+        <v>0.04310448841698844</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.10946347349856134</v>
+        <v>-0.054731736749280668</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.016355130640844928</v>
+        <v>-0.0081775653204224641</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.013201576927067082</v>
+        <v>0.0066007884635335412</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.04664588057445207</v>
+        <v>-0.023322940287226035</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0076142992809660193</v>
+        <v>-0.0038071496404830096</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.05667081647473815</v>
+        <v>0.028335408237369075</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.062792308406343533</v>
+        <v>0.031396154203171767</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.03472802376311146</v>
+        <v>-0.01736401188155573</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.018026189454760866</v>
+        <v>-0.0090130947273804329</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.016230516230516245</v>
+        <v>-0.0081152581152581227</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0065120065120065074</v>
+        <v>-0.0032560032560032537</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.050622050622050607</v>
+        <v>0.025311025311025304</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.0055996472663140673</v>
+        <v>-0.0027998236331570336</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.02271857110566794</v>
+        <v>0.01135928555283397</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.067146511590956137</v>
+        <v>-0.033573255795478069</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.042290249433106664</v>
+        <v>0.021145124716553332</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.047136273864384515</v>
+        <v>0.023568136932192257</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>7.7808901338405345e-05</v>
+        <v>3.8904450669202673e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.0082149818991924528</v>
+        <v>0.0041074909495962264</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.00046566713233381352</v>
+        <v>0.00023283356616690676</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.057841571730460728</v>
+        <v>0.028920785865230364</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.017543859649122751</v>
+        <v>0.0087719298245613753</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.076838062552348207</v>
+        <v>0.038419031276174104</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.030459030459030423</v>
+        <v>-0.015229515229515211</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.077520377520377437</v>
+        <v>0.038760188760188719</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.044026169026169071</v>
+        <v>-0.022013084513084535</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.0036882120215453451</v>
+        <v>0.0018441060107726726</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0054214929214929652</v>
+        <v>-0.0027107464607464826</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.055621693121693183</v>
+        <v>-0.027810846560846592</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.040463395726553553</v>
+        <v>0.020231697863276776</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_theta/roiHumanBody_Within-PLI_theta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0015495406120406285</v>
+        <v>0.0030990812240812571</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.042780984447651105</v>
+        <v>0.08556196889530221</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.045675080067869467</v>
+        <v>0.091350160135738934</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.016515495086923654</v>
+        <v>0.033030990173847308</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.016423374905517762</v>
+        <v>0.032846749811035525</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0013555129654201359</v>
+        <v>-0.0027110259308402718</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0013811079987550989</v>
+        <v>-0.0027622159975101979</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.017474767684851705</v>
+        <v>0.034949535369703411</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0029889733671246421</v>
+        <v>-0.0059779467342492842</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011399004046062922</v>
+        <v>-0.022798008092125843</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.017623716153127883</v>
+        <v>-0.035247432306255766</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.034863945578231331</v>
+        <v>0.069727891156462662</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.011341173105878982</v>
+        <v>-0.022682346211757964</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.016919282332816143</v>
+        <v>-0.033838564665632287</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.041157023613163979</v>
+        <v>0.082314047226327958</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.013767354045131852</v>
+        <v>-0.027534708090263704</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0089324391224976374</v>
+        <v>0.017864878244995275</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0046511713178379877</v>
+        <v>0.0093023426356759753</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0043992972564401434</v>
+        <v>-0.0087985945128802867</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.017172385227940734</v>
+        <v>0.034344770455881468</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0076907956164921909</v>
+        <v>-0.015381591232984382</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00093527871305645882</v>
+        <v>0.0018705574261129176</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.031274315281668241</v>
+        <v>-0.062548630563336483</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.029968216242726053</v>
+        <v>-0.059936432485452107</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.031158447825114538</v>
+        <v>0.062316895650229076</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.037667595911323459</v>
+        <v>-0.075335191822646919</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.011146613527565935</v>
+        <v>-0.02229322705513187</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.01895424836601306</v>
+        <v>-0.03790849673202612</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.016848481134195459</v>
+        <v>0.033696962268390918</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.04244522300077852</v>
+        <v>-0.084890446001557041</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.02906472530532675</v>
+        <v>0.058129450610653499</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.06878071093757368</v>
+        <v>-0.13756142187514736</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.041422374755708147</v>
+        <v>0.082844749511416294</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.012962962962962982</v>
+        <v>0.025925925925925963</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.023089096749811078</v>
+        <v>-0.046178193499622155</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.018333753254388213</v>
+        <v>-0.036667506508776426</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.045978751861104755</v>
+        <v>0.09195750372220951</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.00061615339393109037</v>
+        <v>0.0012323067878621807</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.0010445536239186703</v>
+        <v>-0.0020891072478373407</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.017667774612219134</v>
+        <v>-0.035335549224438267</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.020339727482584613</v>
+        <v>0.040679454965169226</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.0184312536743092</v>
+        <v>0.036862507348618401</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0051845338303671551</v>
+        <v>0.01036906766073431</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0058920342330480713</v>
+        <v>-0.011784068466096143</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.050855190561072905</v>
+        <v>0.10171038112214581</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.016857730746619642</v>
+        <v>-0.033715461493239285</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.019475803789529234</v>
+        <v>-0.038951607579058467</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.014633419969677264</v>
+        <v>-0.029266839939354528</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.041337646169578995</v>
+        <v>-0.082675292339157991</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.013297131718184335</v>
+        <v>-0.02659426343636867</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.019203897775326356</v>
+        <v>-0.038407795550652712</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.0095682717531457573</v>
+        <v>0.019136543506291515</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.02198627198627201</v>
+        <v>-0.04397254397254402</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0049397536792494257</v>
+        <v>-0.0098795073584988513</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.014495149911816579</v>
+        <v>-0.028990299823633159</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.013854079643553341</v>
+        <v>-0.027708159287106682</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.027062777062777099</v>
+        <v>-0.054125554125554198</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.0081090018590018464</v>
+        <v>0.016218003718003693</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0012566137566137059</v>
+        <v>-0.0025132275132274118</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0032757879980101767</v>
+        <v>-0.0065515759960203535</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.020026026604973962</v>
+        <v>0.040052053209947924</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.020356024741989609</v>
+        <v>-0.040712049483979218</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.012527833956405443</v>
+        <v>-0.025055667912810886</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0050055694792536798</v>
+        <v>0.01001113895850736</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.0018554382589470175</v>
+        <v>0.0037108765178940351</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.0016280016280016407</v>
+        <v>-0.0032560032560032814</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.030138558647330616</v>
+        <v>0.060277117294661231</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.032579901329901351</v>
+        <v>0.065159802659802701</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.023602408799777319</v>
+        <v>-0.047204817599554638</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.0050264550264550178</v>
+        <v>0.010052910052910036</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0003589517478405635</v>
+        <v>-0.00071790349568112699</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.016220215781619252</v>
+        <v>0.032440431563238503</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0022959183673469108</v>
+        <v>-0.0045918367346938216</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.024507642563198151</v>
+        <v>-0.049015285126396302</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.05410921125206844</v>
+        <v>0.10821842250413688</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.020672983908278014</v>
+        <v>-0.041345967816556028</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0030745030745031598</v>
+        <v>-0.0061490061490063197</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.00124258457591786</v>
+        <v>0.00248516915183572</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.0038090038090038414</v>
+        <v>-0.0076180076180076828</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0020168978502311807</v>
+        <v>-0.0040337957004623615</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0049757329832517683</v>
+        <v>-0.0099514659665035365</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.0028477725846146607</v>
+        <v>0.0056955451692293213</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.038323241754614323</v>
+        <v>0.076646483509228647</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0013508537318060732</v>
+        <v>0.0027017074636121463</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.03501120167786842</v>
+        <v>-0.07002240335573684</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.014224798106377057</v>
+        <v>0.028449596212754114</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.018055601388934722</v>
+        <v>-0.036111202777869444</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.017752715121136187</v>
+        <v>-0.035505430242272373</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0035728369061702736</v>
+        <v>-0.0071456738123405472</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.020982467060898513</v>
+        <v>-0.041964934121797026</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.024103468547912982</v>
+        <v>-0.048206937095825964</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0083373115328002068</v>
+        <v>0.016674623065600414</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.028993278993278998</v>
+        <v>0.057986557986557996</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.015560432227098936</v>
+        <v>-0.031120864454197872</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.010760760760760713</v>
+        <v>-0.021521521521521425</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.024300093744538176</v>
+        <v>0.048600187489076352</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.046526424084903678</v>
+        <v>0.093052848169807356</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.010630743525480324</v>
+        <v>0.021261487050960648</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.011386035895839863</v>
+        <v>-0.022772071791679727</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.028392888687006401</v>
+        <v>0.056785777374012802</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.039306710338456424</v>
+        <v>0.078613420676912849</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.010469681699840444</v>
+        <v>0.020939363399680888</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.041619425547997024</v>
+        <v>-0.083238851095994049</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.011922166527429723</v>
+        <v>-0.023844333054859446</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.010604850882628636</v>
+        <v>0.021209701765257272</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.044647976149524093</v>
+        <v>0.089295952299048187</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.031617764951098304</v>
+        <v>-0.063235529902196608</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.02223075610172387</v>
+        <v>-0.044461512203447739</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0044857259142973283</v>
+        <v>-0.0089714518285946565</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.023789767210819823</v>
+        <v>-0.047579534421639647</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.01274985302763082</v>
+        <v>-0.025499706055261639</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.026568747156982431</v>
+        <v>0.053137494313964861</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0019332519332519726</v>
+        <v>0.0038665038665039453</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.020869458894669013</v>
+        <v>-0.041738917789338026</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.0037207537207537555</v>
+        <v>0.0074415074415075111</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.041196295582260539</v>
+        <v>0.082392591164521078</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.0069391736058402043</v>
+        <v>-0.013878347211680409</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.023679212275703548</v>
+        <v>-0.047358424551407097</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.072702589807853019</v>
+        <v>0.14540517961570604</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.046017629350962708</v>
+        <v>-0.092035258701925415</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.012484122778240403</v>
+        <v>-0.024968245556480806</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.026147303057025284</v>
+        <v>0.052294606114050568</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0015619989578322668</v>
+        <v>0.0031239979156645337</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.0096708273952856583</v>
+        <v>0.019341654790571317</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>-0.0050264550264550178</v>
+        <v>-0.010052910052910036</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.014609847943181209</v>
+        <v>-0.029219695886362418</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0135850135850136</v>
+        <v>-0.0271700271700272</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>0.010067210067210036</v>
+        <v>0.020134420134420072</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.054568666410771655</v>
+        <v>0.10913733282154331</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.027236027236027249</v>
+        <v>-0.054472054472054499</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.058783407467617954</v>
+        <v>0.11756681493523591</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.031104108309990663</v>
+        <v>-0.062208216619981327</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.030459030459030451</v>
+        <v>0.060918060918060901</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.044843977227018161</v>
+        <v>-0.089687954454036323</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.003323836657170065</v>
+        <v>0.0066476733143401301</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.041701475912002212</v>
+        <v>-0.083402951824004423</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.021935179829916662</v>
+        <v>0.043870359659833325</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.024706531285478728</v>
+        <v>-0.049413062570957456</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0088142329521640195</v>
+        <v>-0.017628465904328039</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.01851851851851849</v>
+        <v>0.037037037037036979</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.016115682782349428</v>
+        <v>0.032231365564698855</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.013227513227513199</v>
+        <v>-0.026455026455026398</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.010903822808584707</v>
+        <v>0.021807645617169413</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.04310448841698844</v>
+        <v>0.08620897683397688</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.054731736749280668</v>
+        <v>-0.10946347349856134</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0081775653204224641</v>
+        <v>-0.016355130640844928</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0066007884635335412</v>
+        <v>0.013201576927067082</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.023322940287226035</v>
+        <v>-0.04664588057445207</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.0038071496404830096</v>
+        <v>-0.0076142992809660193</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.028335408237369075</v>
+        <v>0.05667081647473815</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.031396154203171767</v>
+        <v>0.062792308406343533</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.01736401188155573</v>
+        <v>-0.03472802376311146</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.0090130947273804329</v>
+        <v>-0.018026189454760866</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.0081152581152581227</v>
+        <v>-0.016230516230516245</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0032560032560032537</v>
+        <v>-0.0065120065120065074</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.025311025311025304</v>
+        <v>0.050622050622050607</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.0027998236331570336</v>
+        <v>-0.0055996472663140673</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.01135928555283397</v>
+        <v>0.02271857110566794</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.033573255795478069</v>
+        <v>-0.067146511590956137</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.021145124716553332</v>
+        <v>0.042290249433106664</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.023568136932192257</v>
+        <v>0.047136273864384515</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>3.8904450669202673e-05</v>
+        <v>7.7808901338405345e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.0041074909495962264</v>
+        <v>0.0082149818991924528</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.00023283356616690676</v>
+        <v>0.00046566713233381352</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.028920785865230364</v>
+        <v>0.057841571730460728</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.0087719298245613753</v>
+        <v>0.017543859649122751</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.038419031276174104</v>
+        <v>0.076838062552348207</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.015229515229515211</v>
+        <v>-0.030459030459030423</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.038760188760188719</v>
+        <v>0.077520377520377437</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.022013084513084535</v>
+        <v>-0.044026169026169071</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.0018441060107726726</v>
+        <v>0.0036882120215453451</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0027107464607464826</v>
+        <v>-0.0054214929214929652</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.027810846560846592</v>
+        <v>-0.055621693121693183</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.020231697863276776</v>
+        <v>0.040463395726553553</v>
       </c>
     </row>
   </sheetData>
